--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 32,89</t>
+          <t>9,94; 32,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,1</t>
+          <t>0,0; 20,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,19</t>
+          <t>7,46; 24,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,78</t>
+          <t>5,88; 13,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 11,94</t>
+          <t>3,7; 11,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,45</t>
+          <t>5,79; 11,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,34</t>
+          <t>4,6; 10,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,06</t>
+          <t>7,09; 16,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,92</t>
+          <t>6,34; 10,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,54</t>
+          <t>4,98; 11,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,9</t>
+          <t>0,09; 6,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,42</t>
+          <t>2,33; 7,29</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,12</t>
+          <t>10,06; 16,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,81</t>
+          <t>4,02; 11,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,17</t>
+          <t>8,3; 13,35</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,39</t>
+          <t>8,01; 11,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,35</t>
+          <t>4,02; 8,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,68</t>
+          <t>6,92; 9,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 32,43</t>
+          <t>9,39; 32,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>0,0; 20,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 24,22</t>
+          <t>7,41; 24,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,23</t>
+          <t>5,9; 13,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,88</t>
+          <t>3,82; 11,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,54</t>
+          <t>5,87; 11,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,24</t>
+          <t>5,0; 10,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 16,18</t>
+          <t>7,46; 16,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,99</t>
+          <t>6,23; 10,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,39</t>
+          <t>5,13; 11,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,39</t>
+          <t>0,11; 5,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,29</t>
+          <t>2,38; 7,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,97</t>
+          <t>10,09; 17,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,34</t>
+          <t>4,01; 10,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,35</t>
+          <t>8,22; 13,17</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 11,23</t>
+          <t>7,98; 11,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,31</t>
+          <t>4,29; 8,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,69</t>
+          <t>6,92; 9,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 32,89</t>
+          <t>7,09; 14,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,1</t>
+          <t>3,87; 11,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,19</t>
+          <t>6,64; 12,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,78</t>
+          <t>4,59; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 11,94</t>
+          <t>7,11; 15,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,45</t>
+          <t>5,85; 10,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,34</t>
+          <t>4,91; 11,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,06</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,92</t>
+          <t>1,33; 6,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,54</t>
+          <t>9,55; 16,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,9</t>
+          <t>3,8; 10,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,42</t>
+          <t>7,73; 12,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,12</t>
+          <t>7,6; 10,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,81</t>
+          <t>2,9; 7,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,17</t>
+          <t>5,88; 9,06</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 11,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 8,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 9,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,75</t>
+          <t>7,32; 15,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,23</t>
+          <t>3,98; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 12,19</t>
+          <t>6,78; 12,46</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,69</t>
+          <t>4,49; 9,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,13</t>
+          <t>7,14; 15,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,35</t>
+          <t>5,8; 10,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,14</t>
+          <t>4,83; 11,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,68</t>
+          <t>1,65; 6,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,22</t>
+          <t>9,01; 15,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,13</t>
+          <t>3,79; 10,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,51</t>
+          <t>7,65; 12,5</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,93</t>
+          <t>7,81; 10,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,45</t>
+          <t>2,74; 7,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,06</t>
+          <t>5,78; 8,91</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24320; 50509</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6326; 17709</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33310; 61204</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21596</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53590</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21298; 46574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14390; 31705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39188; 71227</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28704</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15744; 35927</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11603; 46324</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>54018</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>71572</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39595; 68797</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10921; 29713</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55666; 90964</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54715</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>198824</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>122651; 171136</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28096; 76684</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>149926; 231208</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>